--- a/document/00.전반부교육일정.xlsx
+++ b/document/00.전반부교육일정.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ohchi\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\instructor-och\human-da5\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB69BDEB-033E-4131-AC1F-E49A8FF4EDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{25A2AA23-A50F-4249-885B-1E70B8CA60D4}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="교육일정" sheetId="1" r:id="rId1"/>
@@ -238,7 +237,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,9 +338,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -352,6 +348,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -698,41 +697,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA19931-9267-4504-AB53-17E205FC55C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="C17:F19"/>
+      <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="75.3984375" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="75.375" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="8" t="s">
+    <row r="5" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -748,8 +747,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="8" t="s">
+    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -765,8 +764,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="8" t="s">
+    <row r="7" spans="2:6" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -782,8 +781,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="8" t="s">
+    <row r="8" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -799,8 +798,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="8" t="s">
+    <row r="9" spans="2:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -816,8 +815,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="8" t="s">
+    <row r="10" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -833,8 +832,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="8" t="s">
+    <row r="11" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -850,8 +849,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="8" t="s">
+    <row r="12" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -867,8 +866,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="43.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="8" t="s">
+    <row r="13" spans="2:6" ht="43.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -884,8 +883,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="62.4" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="8" t="s">
+    <row r="14" spans="2:6" ht="62.45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -894,14 +893,14 @@
       <c r="D14" s="2">
         <v>80</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11" t="s">
         <v>23</v>
       </c>
@@ -918,7 +917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
       <c r="C16" s="1" t="s">
         <v>24</v>
@@ -933,8 +932,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -946,14 +945,14 @@
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="8">
         <v>52</v>
       </c>
       <c r="E18" s="9" t="s">
@@ -963,18 +962,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="12"/>
       <c r="C19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="10"/>
       <c r="F19" s="12"/>
     </row>
-    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
       <c r="D20" s="2">
